--- a/db 엑셀.xlsx
+++ b/db 엑셀.xlsx
@@ -19,249 +19,300 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="98">
+  <x:si>
+    <x:t>png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>status_idx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>plan_idx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>time_idx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태 status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kdr230713@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>csa230705@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pjh230707@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pji230704@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>csb230714@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shr230708@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sjh230703@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kha230706@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ygy230718@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kay230717@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jyj230710@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lsj230715@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yjh230712@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bmh230711@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hes230709@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mjh230702@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jhy230716@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hkm230701@songpawoman.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원  employee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>schedule_idx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스케줄 schedule</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보고서제출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스케줄번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할일 plan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>empno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간 time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오후미팅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내선번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pass</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부서 dept</x:t>
+  </x:si>
   <x:si>
     <x:t>icon</x:t>
   </x:si>
   <x:si>
-    <x:t>사원번호</x:t>
+    <x:t>부서번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마케팅부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오전미팅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>deptno</x:t>
   </x:si>
   <x:si>
     <x:t>비밀번호</x:t>
   </x:si>
   <x:si>
-    <x:t>상태번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부서 dept</x:t>
+    <x:t>email</x:t>
   </x:si>
   <x:si>
     <x:t>상태아이콘이름</x:t>
   </x:si>
   <x:si>
-    <x:t>내선번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부서번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*테이블과 시퀀스만 만들어두면됨</x:t>
+    <x:t>윤지현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>job</x:t>
+  </x:si>
+  <x:si>
+    <x:t>년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팀장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인턴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박지인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">대리 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윤가이</x:t>
   </x:si>
   <x:si>
     <x:t>홍은실</x:t>
   </x:si>
   <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조수빈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>민진호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박지현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주현영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부서명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총무부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최승아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김아영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>송혜령</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손정혜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
     <x:t>김현아</x:t>
   </x:si>
   <x:si>
-    <x:t>최승아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스케줄번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*이건 Dao로만 인서트 시도해볼생각임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손정혜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dd</x:t>
+    <x:t>김다래</x:t>
   </x:si>
   <x:si>
     <x:t>mm</x:t>
   </x:si>
   <x:si>
-    <x:t>yy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>schedule_idx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원  employee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스케줄 schedule</x:t>
-  </x:si>
-  <x:si>
-    <x:t>empno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>민진호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>job</x:t>
-  </x:si>
-  <x:si>
-    <x:t>finished.png</x:t>
+    <x:t>대리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정유진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이수지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영업부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일</x:t>
   </x:si>
   <x:si>
     <x:t>황경미</x:t>
   </x:si>
   <x:si>
-    <x:t>인턴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박지현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>status_idx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>deptno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박지인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mjh230702@songpawoman.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hes230709@songpawoman.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pji230704@songpawoman.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부장</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">대리 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>pass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>송혜령</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윤가이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김아영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정유진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팀장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>230702@@songpawoman.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hkm230701@songpawoman.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부서명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태 status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kha230706@songpawoman.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>csa230705@songpawoman.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pjh230707@songpawoman.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sjh230703@songpawoman.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shr230708@songpawoman.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마케팅부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총무부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이수지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주현영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영업부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회계부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이지현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최수빈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김다래</x:t>
-  </x:si>
-  <x:si>
-    <x:t>working.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>230710@songpawoman.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>meeting.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>absent.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>business.png</x:t>
+    <x:t>변민희</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">제목 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외근</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -433,13 +484,16 @@
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="16">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+  <x:cellXfs count="26">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -500,6 +554,58 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -515,20 +621,8 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
   </x:cellStyles>
   <x:dxfs count="12">
@@ -1247,10 +1341,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B3:U23"/>
+  <x:dimension ref="B3:AC30"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="R22" activeCellId="0" sqref="R22:R22"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="52" zoomScaleNormal="52" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="O15" activeCellId="0" sqref="O15:O15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -1259,153 +1353,202 @@
     <x:col min="5" max="5" width="35" customWidth="1"/>
     <x:col min="15" max="15" width="25.6015625" customWidth="1"/>
     <x:col min="17" max="17" width="12.1015625" customWidth="1"/>
+    <x:col min="22" max="22" width="8.796875" customWidth="1"/>
+    <x:col min="24" max="24" width="18.80078125" customWidth="1"/>
+    <x:col min="25" max="25" width="12.80078125" customWidth="1"/>
+    <x:col min="26" max="26" width="16.69921875" customWidth="1"/>
+    <x:col min="27" max="27" width="22.3984375" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="3" spans="2:21" s="6" customFormat="1" ht="17.14999999999999857891">
-      <x:c r="B3" s="7" t="s">
+    <x:row r="3" spans="2:29" s="6" customFormat="1" ht="17.14999999999999857891">
+      <x:c r="B3" s="21" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C3" s="22"/>
+      <x:c r="D3" s="22"/>
+      <x:c r="E3" s="22"/>
+      <x:c r="F3" s="22"/>
+      <x:c r="G3" s="22"/>
+      <x:c r="H3" s="22"/>
+      <x:c r="I3" s="23"/>
+      <x:c r="K3" s="21" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L3" s="23"/>
+      <x:c r="N3" s="24" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="O3" s="25"/>
+      <x:c r="Q3" s="8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="R3" s="9"/>
+      <x:c r="S3" s="9"/>
+      <x:c r="T3" s="9"/>
+      <x:c r="U3" s="10"/>
+      <x:c r="V3" s="11"/>
+      <x:c r="W3" s="8"/>
+      <x:c r="X3" s="9" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Y3" s="9"/>
+      <x:c r="Z3" s="9"/>
+      <x:c r="AA3" s="9"/>
+      <x:c r="AB3" s="9"/>
+      <x:c r="AC3" s="10"/>
+    </x:row>
+    <x:row r="4" spans="2:29" s="2" customFormat="1">
+      <x:c r="B4" s="4" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D4" s="4" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E4" s="4" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F4" s="4" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G4" s="4" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H4" s="4" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I4" s="4" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="K4" s="4" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="L4" s="4" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="N4" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O4" s="5" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Q4" s="4" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R4" s="4" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S4" s="4" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="T4" s="4" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="U4" s="4" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="V4" s="13"/>
+      <x:c r="W4" s="4"/>
+      <x:c r="X4" s="4">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y4" s="4" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="Z4" s="4" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="AA4" s="4" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="AB4" s="4" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="AC4" s="4" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:29" s="2" customFormat="1">
+      <x:c r="B5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Q5" s="3" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C3" s="8"/>
-      <x:c r="D3" s="8"/>
-      <x:c r="E3" s="8"/>
-      <x:c r="F3" s="8"/>
-      <x:c r="G3" s="8"/>
-      <x:c r="H3" s="8"/>
-      <x:c r="I3" s="9"/>
-      <x:c r="K3" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="L3" s="9"/>
-      <x:c r="N3" s="10" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="O3" s="11"/>
-      <x:c r="Q3" s="13" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="R3" s="14"/>
-      <x:c r="S3" s="14"/>
-      <x:c r="T3" s="14"/>
-      <x:c r="U3" s="15"/>
-    </x:row>
-    <x:row r="4" spans="2:21" s="2" customFormat="1">
-      <x:c r="B4" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D4" s="4" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E4" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F4" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G4" s="4" t="s">
+      <x:c r="R5" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="S5" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="T5" s="3" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="U5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="V5" s="13"/>
+      <x:c r="W5" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="H4" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I4" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="K4" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="L4" s="4" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="N4" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="O4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="Q4" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="R4" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="S4" s="4" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="T4" s="4" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="U4" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:21" s="2" customFormat="1">
-      <x:c r="B5" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K5" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q5" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R5" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="S5" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="T5" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="U5" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="2:21">
+      <x:c r="X5" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="Y5" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="Z5" s="3"/>
+      <x:c r="AA5" s="3"/>
+      <x:c r="AB5" s="3"/>
+      <x:c r="AC5" s="3"/>
+    </x:row>
+    <x:row r="6" spans="2:29">
       <x:c r="B6" s="1">
         <x:v>230701</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E6" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E6" s="7" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F6" s="1">
         <x:v>1</x:v>
@@ -1423,32 +1566,56 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="L6" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N6" s="1">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O6" s="1" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="Q6" s="1"/>
-      <x:c r="R6" s="1"/>
-      <x:c r="S6" s="1"/>
-      <x:c r="T6" s="1"/>
-      <x:c r="U6" s="1"/>
-    </x:row>
-    <x:row r="7" spans="2:21">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q6" s="1">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R6" s="1">
+        <x:v>22023</x:v>
+      </x:c>
+      <x:c r="S6" s="1">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="T6" s="1">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="U6" s="1">
+        <x:v>230709</x:v>
+      </x:c>
+      <x:c r="V6" s="14"/>
+      <x:c r="W6" s="12">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X6" s="12">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y6" s="12"/>
+      <x:c r="Z6" s="12" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="AA6" s="12"/>
+      <x:c r="AB6" s="12"/>
+      <x:c r="AC6" s="12"/>
+    </x:row>
+    <x:row r="7" spans="2:29">
       <x:c r="B7" s="1">
         <x:v>230702</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E7" s="12" t="s">
-        <x:v>42</x:v>
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E7" s="7" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F7" s="1">
         <x:v>2</x:v>
@@ -1466,32 +1633,56 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="L7" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N7" s="1">
         <x:v>2</x:v>
       </x:c>
       <x:c r="O7" s="1" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="Q7" s="1"/>
-      <x:c r="R7" s="1"/>
-      <x:c r="S7" s="1"/>
-      <x:c r="T7" s="1"/>
-      <x:c r="U7" s="1"/>
-    </x:row>
-    <x:row r="8" spans="2:17">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q7" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="R7" s="1">
+        <x:v>2023</x:v>
+      </x:c>
+      <x:c r="S7" s="1">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="T7" s="1">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="U7" s="1">
+        <x:v>230708</x:v>
+      </x:c>
+      <x:c r="V7" s="14"/>
+      <x:c r="W7" s="12">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="X7" s="12">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y7" s="12"/>
+      <x:c r="Z7" s="12" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="AA7" s="12"/>
+      <x:c r="AB7" s="12"/>
+      <x:c r="AC7" s="12"/>
+    </x:row>
+    <x:row r="8" spans="2:29">
       <x:c r="B8" s="1">
         <x:v>230703</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E8" s="12" t="s">
-        <x:v>64</x:v>
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E8" s="7" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F8" s="1">
         <x:v>3</x:v>
@@ -1503,36 +1694,47 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I8" s="1">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K8" s="1">
         <x:v>33</x:v>
       </x:c>
       <x:c r="L8" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N8" s="1">
         <x:v>3</x:v>
       </x:c>
       <x:c r="O8" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q8" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="2:17">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V8" s="15"/>
+      <x:c r="W8" s="12">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="X8" s="12">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y8" s="12"/>
+      <x:c r="Z8" s="12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="AA8" s="12"/>
+      <x:c r="AB8" s="12"/>
+      <x:c r="AC8" s="12"/>
+    </x:row>
+    <x:row r="9" spans="2:29">
       <x:c r="B9" s="1">
         <x:v>230704</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E9" s="12" t="s">
-        <x:v>44</x:v>
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E9" s="7" t="s">
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="1">
         <x:v>4</x:v>
@@ -1544,36 +1746,46 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="I9" s="1">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K9" s="1">
         <x:v>44</x:v>
       </x:c>
       <x:c r="L9" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="N9" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="O9" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="Q9" t="s">
-        <x:v>9</x:v>
-      </x:c>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="W9" s="12">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="X9" s="12">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Y9" s="12"/>
+      <x:c r="Z9" s="12" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="AA9" s="12"/>
+      <x:c r="AB9" s="12"/>
+      <x:c r="AC9" s="12"/>
     </x:row>
     <x:row r="10" spans="2:15">
       <x:c r="B10" s="1">
         <x:v>230705</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E10" s="12" t="s">
-        <x:v>62</x:v>
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E10" s="7" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F10" s="1">
         <x:v>5</x:v>
@@ -1585,19 +1797,19 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I10" s="1">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K10" s="1">
         <x:v>55</x:v>
       </x:c>
       <x:c r="L10" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N10" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="O10" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:9">
@@ -1605,13 +1817,13 @@
         <x:v>230706</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E11" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E11" s="7" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F11" s="1">
         <x:v>6</x:v>
@@ -1623,7 +1835,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I11" s="1">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:9">
@@ -1631,13 +1843,13 @@
         <x:v>230707</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E12" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E12" s="7" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F12" s="1">
         <x:v>7</x:v>
@@ -1649,7 +1861,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I12" s="1">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:9">
@@ -1657,13 +1869,13 @@
         <x:v>230708</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E13" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E13" s="7" t="s">
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="1">
         <x:v>8</x:v>
@@ -1675,21 +1887,21 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="I13" s="1">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="2:9">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:25" ht="17.14999999999999857891">
       <x:c r="B14" s="1">
         <x:v>230709</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E14" s="12" t="s">
-        <x:v>43</x:v>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E14" s="7" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F14" s="1">
         <x:v>9</x:v>
@@ -1701,21 +1913,25 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I14" s="1">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="2:9">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="X14" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Y14" s="18"/>
+    </x:row>
+    <x:row r="15" spans="2:25">
       <x:c r="B15" s="1">
         <x:v>230710</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E15" s="12" t="s">
-        <x:v>77</x:v>
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E15" s="7" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F15" s="1">
         <x:v>10</x:v>
@@ -1727,19 +1943,27 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I15" s="1">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="2:9">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="X15" s="19" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="Y15" s="4" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:25">
       <x:c r="B16" s="1">
         <x:v>230711</x:v>
       </x:c>
-      <x:c r="C16" s="1"/>
+      <x:c r="C16" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E16" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E16" s="7" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F16" s="1">
         <x:v>11</x:v>
@@ -1751,21 +1975,25 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="I16" s="1">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="2:9">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="X16" s="20"/>
+      <x:c r="Y16" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:25">
       <x:c r="B17" s="1">
         <x:v>230712</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E17" s="7" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F17" s="1">
         <x:v>12</x:v>
@@ -1777,21 +2005,27 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I17" s="1">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="X17" s="12">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="18" spans="2:9">
+      <x:c r="Y17" s="16">
+        <x:v>0.375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="2:25">
       <x:c r="B18" s="1">
         <x:v>230713</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E18" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E18" s="7" t="s">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F18" s="1">
         <x:v>13</x:v>
@@ -1803,21 +2037,27 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I18" s="1">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="2:9">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="X18" s="12">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Y18" s="16">
+        <x:v>0.41666666666666669</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="2:25">
       <x:c r="B19" s="1">
         <x:v>230714</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E19" s="7" t="s">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F19" s="1">
         <x:v>14</x:v>
@@ -1829,21 +2069,27 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I19" s="1">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="2:9">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="X19" s="12">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="Y19" s="16">
+        <x:v>0.45833333333333331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="2:25">
       <x:c r="B20" s="1">
         <x:v>230715</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E20" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E20" s="7" t="s">
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F20" s="1">
         <x:v>15</x:v>
@@ -1855,21 +2101,27 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="I20" s="1">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="2:9">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="X20" s="12">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Y20" s="16">
+        <x:v>0.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="2:25">
       <x:c r="B21" s="1">
         <x:v>230716</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E21" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E21" s="7" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F21" s="1">
         <x:v>16</x:v>
@@ -1881,21 +2133,27 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I21" s="1">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="2:9">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="X21" s="12">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Y21" s="16">
+        <x:v>0.54166666666666663</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:25">
       <x:c r="B22" s="1">
         <x:v>230717</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E22" s="7" t="s">
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F22" s="1">
         <x:v>17</x:v>
@@ -1907,21 +2165,27 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="I22" s="1">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="2:9">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="X22" s="12">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="Y22" s="16">
+        <x:v>0.58333333333333337</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="2:25">
       <x:c r="B23" s="1">
         <x:v>230718</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E23" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E23" s="7" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F23" s="1">
         <x:v>18</x:v>
@@ -1933,7 +2197,69 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I23" s="1">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="X23" s="12">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="Y23" s="16">
+        <x:v>0.625</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="24:25">
+      <x:c r="X24" s="12">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="Y24" s="16">
+        <x:v>0.66666666666666663</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="24:25">
+      <x:c r="X25" s="12">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="Y25" s="16">
+        <x:v>0.70833333333333337</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="24:25">
+      <x:c r="X26" s="12">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="Y26" s="16">
+        <x:v>0.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="24:25">
+      <x:c r="X27" s="12">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="Y27" s="16">
+        <x:v>0.79166666666666663</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="24:25">
+      <x:c r="X28" s="12">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="Y28" s="16">
+        <x:v>0.83333333333333337</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="24:25">
+      <x:c r="X29" s="12">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="Y29" s="16">
+        <x:v>0.875</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="24:25">
+      <x:c r="X30" s="12">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="Y30" s="16">
+        <x:v>0.91666666666666663</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1942,7 +2268,7 @@
     <x:mergeCell ref="K3:L3"/>
     <x:mergeCell ref="N3:O3"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>